--- a/biology/Botanique/Stenocarpus/Stenocarpus.xlsx
+++ b/biology/Botanique/Stenocarpus/Stenocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stenocarpus est un genre de plantes à fleurs comprenant 25 espèces arbustives appartenant à la famille des Proteaceae.
 En Australie, 10 espèces poussent dans les forêts tropicales de l'est de la Nouvelle-Galles du Sud et du Queensland ainsi que dans les forêts de mousson du nord du Queensland, du Territoire du Nord et de l'Australie-Occidentale. Deux de ces espèces de l'est de l'Australie poussent aussi en Nouvelle-Guinée et dans l'une des îles Aru, aux Moluques.  
-La plus grande diversité se trouve cependant en Nouvelle-Calédonie, où 12 espèces endémiques sont connues[1].
+La plus grande diversité se trouve cependant en Nouvelle-Calédonie, où 12 espèces endémiques sont connues.
 L'espèce la plus connue en Australie est sans conteste Stenocarpus sinuatus, dont le nom vernaculaire anglais peut se traduire par : « arbre à roue de feu du Queensland ». Il est fréquemment planté à des fins ornementales le long des rues ou dans les jardins de la côte est.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La liste suivante est extraite de : The Australian Plant Name Index ; The Checklist of the Vascular Flora of New Caledonia ; The Census of Vascular Plants of Papua New Guinea ; The Handbooks of the Flora of Papua New Guinea ; La Flore de Nouvelle-Calédonie et Dépendances ; The Flora of Australia. 
 Stenocarpus acacioides NT, WA, Australie
